--- a/src/DirectoryForScanning/VechicleRegList.xlsx
+++ b/src/DirectoryForScanning/VechicleRegList.xlsx
@@ -189,13 +189,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="mmm\-yy"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +204,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,15 +219,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +263,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -281,7 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,13 +304,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +318,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -327,35 +342,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -372,25 +386,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,19 +530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,133 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +636,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -646,17 +671,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -666,158 +680,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,14 +1151,14 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="$A3:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="12.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="22.8181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8181818181818" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.7272727272727" customWidth="1"/>
     <col min="5" max="5" width="20.0909090909091" customWidth="1"/>
     <col min="6" max="6" width="13.1818181818182" customWidth="1"/>
@@ -1160,10 +1175,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1197,269 +1212,269 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" customFormat="1" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>2014</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>2012</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2015</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>2006</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>2016</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>2009</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
